--- a/VersionRecords/Version3.0.1/版本Bug和特性计划及评审表v3.0.1_闪电组.xlsx
+++ b/VersionRecords/Version3.0.1/版本Bug和特性计划及评审表v3.0.1_闪电组.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="43">
   <si>
     <t>No</t>
   </si>
@@ -160,6 +160,22 @@
   </si>
   <si>
     <t>雷传盛</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐燕</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>anna</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -921,8 +937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T218"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1039,10 +1055,18 @@
       <c r="K2" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="12"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="14"/>
+      <c r="L2" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="13">
+        <v>42436</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>42</v>
+      </c>
       <c r="P2" s="22"/>
       <c r="Q2" s="22"/>
       <c r="R2" s="32"/>
@@ -1081,10 +1105,18 @@
       <c r="K3" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="12"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="14"/>
+      <c r="L3" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" s="13">
+        <v>42436</v>
+      </c>
+      <c r="O3" s="14" t="s">
+        <v>42</v>
+      </c>
       <c r="P3" s="22"/>
       <c r="Q3" s="22"/>
       <c r="R3" s="33"/>
@@ -1123,10 +1155,18 @@
       <c r="K4" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="12"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="14"/>
+      <c r="L4" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="M4" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" s="13">
+        <v>42436</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>42</v>
+      </c>
       <c r="P4" s="22"/>
       <c r="Q4" s="22"/>
       <c r="R4" s="33"/>
@@ -1165,10 +1205,18 @@
       <c r="K5" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="L5" s="12"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="14"/>
+      <c r="L5" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="M5" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="N5" s="13">
+        <v>42436</v>
+      </c>
+      <c r="O5" s="14" t="s">
+        <v>42</v>
+      </c>
       <c r="P5" s="22"/>
       <c r="Q5" s="22"/>
       <c r="R5" s="33"/>
